--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13155" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,26 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
-  <si>
-    <t>角钢 矩形管</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+  <si>
+    <t>等边角钢 方管</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>厚度</t>
   </si>
   <si>
-    <t>a</t>
+    <t>单位 mm</t>
+  </si>
+  <si>
+    <t>不等边角钢 矩形管</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
+    <t>厚度(圆管)</t>
+  </si>
+  <si>
     <t>外径(圆管)</t>
   </si>
   <si>
-    <t>厚度(圆管)</t>
-  </si>
-  <si>
     <t>外径(圆钢)</t>
   </si>
   <si>
@@ -45,13 +51,16 @@
     <t>材料种类(严格命名)</t>
   </si>
   <si>
-    <t>厚(扁钢)</t>
-  </si>
-  <si>
-    <t>宽(扁钢)</t>
-  </si>
-  <si>
-    <t>长(扁钢)</t>
+    <t>厚(扁钢/板材)</t>
+  </si>
+  <si>
+    <t>宽(扁钢/板材)</t>
+  </si>
+  <si>
+    <t>长(板材)</t>
+  </si>
+  <si>
+    <t>长度</t>
   </si>
   <si>
     <t>数量</t>
@@ -75,10 +84,10 @@
     <t>横杆988</t>
   </si>
   <si>
+    <t>等边等边角钢</t>
+  </si>
+  <si>
     <t>等边角钢</t>
-  </si>
-  <si>
-    <t>角钢</t>
   </si>
   <si>
     <r>
@@ -225,6 +234,12 @@
     <t>外购件</t>
   </si>
   <si>
+    <t>奇怪的零件</t>
+  </si>
+  <si>
+    <t>板材</t>
+  </si>
+  <si>
     <t>__uniqer_end__</t>
   </si>
   <si>
@@ -235,6 +250,15 @@
   </si>
   <si>
     <t>材料种类</t>
+  </si>
+  <si>
+    <t>厚(扁钢)</t>
+  </si>
+  <si>
+    <t>宽(扁钢)</t>
+  </si>
+  <si>
+    <t>长(扁钢)</t>
   </si>
   <si>
     <t>方管40*40*3</t>
@@ -1283,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:H77"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1294,67 +1318,85 @@
     <col min="1" max="1" width="19.75" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="8" customWidth="1"/>
     <col min="3" max="4" width="14.125" style="8" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="8" customWidth="1"/>
     <col min="8" max="8" width="16.25" style="8" customWidth="1"/>
     <col min="9" max="14" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="2:4">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>6</v>
@@ -1371,10 +1413,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>20</v>
@@ -1389,17 +1431,15 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
-        <v>153.9384</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="F8" s="1">
         <v>988</v>
       </c>
@@ -1409,16 +1449,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
       </c>
       <c r="F9" s="1">
         <v>1000</v>
@@ -1429,17 +1472,15 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>314.16</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="F10" s="1">
         <v>1323</v>
       </c>
@@ -1449,17 +1490,15 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>153.9384</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="F11" s="1">
         <v>1323</v>
       </c>
@@ -1469,10 +1508,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -1489,16 +1528,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
       </c>
       <c r="F13" s="1">
         <v>1335</v>
@@ -1509,10 +1551,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <v>6</v>
@@ -1529,10 +1571,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <v>20</v>
@@ -1547,10 +1589,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -1565,10 +1607,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
@@ -1585,10 +1627,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -1608,10 +1650,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
@@ -1628,10 +1670,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>6</v>
@@ -1648,10 +1690,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <v>6</v>
@@ -1668,10 +1710,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
         <v>14</v>
@@ -1686,10 +1728,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
         <v>14</v>
@@ -1704,10 +1746,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2">
         <v>20</v>
@@ -1722,10 +1764,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
@@ -1742,10 +1784,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
@@ -1765,10 +1807,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
         <v>20</v>
@@ -1783,10 +1825,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2">
         <v>14</v>
@@ -1801,10 +1843,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
@@ -1821,10 +1863,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>6</v>
@@ -1841,10 +1883,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2">
         <v>20</v>
@@ -1859,10 +1901,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C32" s="2">
         <v>14</v>
@@ -1877,10 +1919,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2">
         <v>6</v>
@@ -1897,10 +1939,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -1920,10 +1962,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2">
         <v>6</v>
@@ -1940,10 +1982,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C36" s="2">
         <v>20</v>
@@ -1958,10 +2000,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2">
         <v>14</v>
@@ -1976,10 +2018,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2">
         <v>6</v>
@@ -1996,10 +2038,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
@@ -2019,10 +2061,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2">
         <v>3</v>
@@ -2042,10 +2084,10 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2">
         <v>8</v>
@@ -2062,10 +2104,10 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2">
         <v>6</v>
@@ -2082,10 +2124,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="C43" s="2">
         <v>3</v>
@@ -2105,10 +2147,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2">
         <v>6</v>
@@ -2125,10 +2167,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
@@ -2148,10 +2190,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2">
         <v>8</v>
@@ -2168,10 +2210,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2">
         <v>6</v>
@@ -2188,10 +2230,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C48" s="2">
         <v>3</v>
@@ -2211,10 +2253,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2">
         <v>8</v>
@@ -2231,10 +2273,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2">
         <v>6</v>
@@ -2251,10 +2293,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2">
         <v>3</v>
@@ -2274,10 +2316,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" s="2">
         <v>8</v>
@@ -2294,10 +2336,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2">
         <v>6</v>
@@ -2314,10 +2356,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2">
         <v>20</v>
@@ -2332,10 +2374,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C55" s="2">
         <v>14</v>
@@ -2350,10 +2392,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2">
         <v>6</v>
@@ -2370,10 +2412,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C57" s="2">
         <v>3</v>
@@ -2393,10 +2435,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C58" s="2">
         <v>20</v>
@@ -2411,10 +2453,10 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C59" s="2">
         <v>14</v>
@@ -2429,10 +2471,10 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C60" s="2">
         <v>6</v>
@@ -2449,10 +2491,10 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C61" s="2">
         <v>3</v>
@@ -2472,10 +2514,10 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C62" s="2">
         <v>6</v>
@@ -2492,10 +2534,10 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C63" s="2">
         <v>6</v>
@@ -2512,10 +2554,10 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C64" s="2">
         <v>20</v>
@@ -2530,10 +2572,10 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C65" s="2">
         <v>14</v>
@@ -2548,10 +2590,10 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2">
         <v>6</v>
@@ -2568,10 +2610,10 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C67" s="2">
         <v>3</v>
@@ -2591,17 +2633,15 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C68" s="2">
         <v>20</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
-      </c>
+      <c r="D68" s="1"/>
       <c r="F68" s="1">
         <v>1099</v>
       </c>
@@ -2611,17 +2651,15 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2">
         <v>14</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
-      </c>
+      <c r="D69" s="1"/>
       <c r="F69" s="1">
         <v>1099</v>
       </c>
@@ -2631,10 +2669,10 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C70" s="2">
         <v>6</v>
@@ -2651,10 +2689,10 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C71" s="2">
         <v>3</v>
@@ -2674,10 +2712,10 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2">
         <v>6</v>
@@ -2694,10 +2732,10 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C73" s="2">
         <v>4</v>
@@ -2717,10 +2755,10 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C74" s="2">
         <v>12</v>
@@ -2735,10 +2773,10 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C75" s="2">
         <v>10</v>
@@ -2753,10 +2791,10 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="1"/>
@@ -2765,9 +2803,30 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:7">
       <c r="A77" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="8">
+        <v>4</v>
+      </c>
+      <c r="D77" s="8">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2793,35 +2852,35 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
@@ -2838,10 +2897,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4">
         <v>6</v>
@@ -2858,10 +2917,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -2878,10 +2937,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
@@ -2898,10 +2957,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -2918,10 +2977,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4">
         <v>6</v>
@@ -2938,10 +2997,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
         <v>6</v>
@@ -2958,10 +3017,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>6</v>
@@ -2978,10 +3037,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4">
         <v>8</v>
@@ -2998,10 +3057,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4">
         <v>8</v>
@@ -3018,10 +3077,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4">
         <v>992</v>
@@ -3033,10 +3092,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C14" s="4">
         <v>992</v>
@@ -3048,10 +3107,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C15" s="4">
         <v>994</v>
@@ -3063,10 +3122,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C16" s="4">
         <v>994</v>
@@ -3078,10 +3137,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4">
         <v>994</v>
@@ -3093,10 +3152,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4">
         <v>1000</v>
@@ -3108,10 +3167,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4">
         <v>1111</v>
@@ -3123,10 +3182,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4">
         <v>1220</v>
@@ -3138,10 +3197,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4">
         <v>1320</v>
@@ -3153,10 +3212,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C22" s="4">
         <v>1335</v>
@@ -3168,10 +3227,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C23" s="4">
         <v>1419</v>
@@ -3183,10 +3242,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4">
         <v>1519</v>
@@ -3198,10 +3257,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4">
         <v>1530</v>
@@ -3213,10 +3272,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C26" s="4">
         <v>1540</v>
@@ -3228,10 +3287,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4">
         <v>40</v>
@@ -3243,10 +3302,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5">
@@ -3256,10 +3315,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C29" s="4">
         <v>164.8</v>
@@ -3271,10 +3330,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4">
         <v>702.9</v>
@@ -3286,10 +3345,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C31" s="4">
         <v>1099</v>
@@ -3301,10 +3360,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C32" s="4">
         <v>1208</v>
@@ -3316,10 +3375,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C33" s="4">
         <v>1308</v>
@@ -3331,10 +3390,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4">
         <v>1323</v>
@@ -3346,10 +3405,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C35" s="4">
         <v>1407</v>
@@ -3361,10 +3420,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4">
         <v>1507</v>
@@ -3376,10 +3435,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C37" s="4">
         <v>1518</v>
@@ -3391,10 +3450,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C38" s="4">
         <v>1528</v>
@@ -3406,10 +3465,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C39" s="4">
         <v>269</v>
@@ -3421,10 +3480,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C40" s="4">
         <v>659</v>
@@ -3436,10 +3495,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C41" s="4">
         <v>988</v>
@@ -3451,10 +3510,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C42" s="4">
         <v>1099</v>
@@ -3466,10 +3525,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4">
         <v>1208</v>
@@ -3481,10 +3540,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C44" s="4">
         <v>1323</v>
@@ -3496,10 +3555,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C45" s="4">
         <v>1407</v>
@@ -3511,10 +3570,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C46" s="4">
         <v>1507</v>
@@ -3526,10 +3585,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C47" s="4">
         <v>1518</v>
@@ -3541,10 +3600,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C48" s="4">
         <v>1528</v>
@@ -3556,10 +3615,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C49" s="4">
         <v>988</v>
@@ -3571,10 +3630,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C50" s="4">
         <v>269</v>
@@ -3586,10 +3645,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C51" s="4">
         <v>659</v>
@@ -3601,17 +3660,17 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5">
         <v>1260</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3625,43 +3684,43 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4">
         <v>6</v>
@@ -3678,7 +3737,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
@@ -3695,7 +3754,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -3712,7 +3771,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4">
         <v>6</v>
@@ -3729,7 +3788,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -3746,7 +3805,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4">
         <v>6</v>
@@ -3763,7 +3822,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>6</v>
@@ -3780,7 +3839,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4">
         <v>6</v>
@@ -3797,7 +3856,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>8</v>
@@ -3814,7 +3873,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4">
         <v>8</v>
